--- a/output/2025-06-02/2009_Teledad_2025_06_02.xlsx
+++ b/output/2025-06-02/2009_Teledad_2025_06_02.xlsx
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441297</v>
+        <v>441321</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>441297</v>
+        <v>441321</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33458</v>
+        <v>33473</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441297</v>
+        <v>441321</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
